--- a/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
+++ b/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -613,56 +665,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
+++ b/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -498,6 +515,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
+++ b/数据整理/stocks/A股/科创板/688283-坤恒顺维.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -515,6 +532,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1214,7 +1971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
